--- a/Leetcode all sheet/Coding Decoded Maps_Set SDE Revision Sheet.xlsx
+++ b/Leetcode all sheet/Coding Decoded Maps_Set SDE Revision Sheet.xlsx
@@ -688,8 +688,8 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -838,7 +838,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="10" t="s">
